--- a/excel/Perf_Comparison_Sean.xlsx
+++ b/excel/Perf_Comparison_Sean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnb/git/perfleap/presto_benchmarking/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83276EAF-D922-0D46-87CC-44EFFD010E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E020F896-283A-8848-BE9C-7B37979BF398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="500" windowWidth="46600" windowHeight="26600" activeTab="2" xr2:uid="{FB6AB903-1CF7-2A4F-A7F8-58E6A057D4B0}"/>
+    <workbookView xWindow="4600" yWindow="500" windowWidth="46600" windowHeight="26600" activeTab="1" xr2:uid="{FB6AB903-1CF7-2A4F-A7F8-58E6A057D4B0}"/>
   </bookViews>
   <sheets>
     <sheet name="nex_8_workers_sf100_velox_2025-" sheetId="16" r:id="rId1"/>
@@ -478,11 +478,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2717,13 +2716,13 @@
     <sortCondition ref="E1:E23"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6DBB93B7-6D07-CF42-AEE1-ADE2311619BA}" uniqueName="1" name="queryName" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8B444E43-3818-DB42-A83B-8EEAF54329A9}" uniqueName="2" name="scaleFactor" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{6DBB93B7-6D07-CF42-AEE1-ADE2311619BA}" uniqueName="1" name="queryName" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{8B444E43-3818-DB42-A83B-8EEAF54329A9}" uniqueName="2" name="scaleFactor" queryTableFieldId="2" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{912966BC-4779-D746-8995-C60F74D24980}" uniqueName="3" name="timeMillsecs" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{E0CB312D-C3C2-7D44-AD0A-1F9BC9723BCF}" uniqueName="4" name="queryStats.createTime" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{55258D13-067F-1543-8B04-FA81350E9EA2}" uniqueName="5" name="queryId" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{882CE77D-0416-FE43-8D3E-F2B37203E744}" uniqueName="6" name="queryStats.elapsedTime" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{AA441496-353D-4F4D-8BEC-DCBB48C301F1}" uniqueName="7" name="state" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{E0CB312D-C3C2-7D44-AD0A-1F9BC9723BCF}" uniqueName="4" name="queryStats.createTime" queryTableFieldId="4" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{55258D13-067F-1543-8B04-FA81350E9EA2}" uniqueName="5" name="queryId" queryTableFieldId="5" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{882CE77D-0416-FE43-8D3E-F2B37203E744}" uniqueName="6" name="queryStats.elapsedTime" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{AA441496-353D-4F4D-8BEC-DCBB48C301F1}" uniqueName="7" name="state" queryTableFieldId="7" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2736,13 +2735,13 @@
     <sortCondition ref="E1:E23"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{744C18B3-9C3F-6446-A0E0-F32B8CEE7A68}" uniqueName="1" name="queryName" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{5C54E5F9-8798-D145-A467-A5F50657F2E7}" uniqueName="2" name="scaleFactor" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{744C18B3-9C3F-6446-A0E0-F32B8CEE7A68}" uniqueName="1" name="queryName" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5C54E5F9-8798-D145-A467-A5F50657F2E7}" uniqueName="2" name="scaleFactor" queryTableFieldId="2" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{CA2EDCEC-B34F-5148-A766-6B1092B53FBA}" uniqueName="3" name="timeMillsecs" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{41B388AB-E5D7-974F-AFFD-C64456DEFC07}" uniqueName="4" name="queryStats.createTime" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{E382832D-AC4D-C443-A50C-9717ED09AFA7}" uniqueName="5" name="queryId" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{68C9E9CD-7433-BE4F-B7FB-4F54210EB1DB}" uniqueName="6" name="queryStats.elapsedTime" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{A745340E-B6EC-B341-8B32-BA5777891AD1}" uniqueName="7" name="state" queryTableFieldId="7" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{41B388AB-E5D7-974F-AFFD-C64456DEFC07}" uniqueName="4" name="queryStats.createTime" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E382832D-AC4D-C443-A50C-9717ED09AFA7}" uniqueName="5" name="queryId" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{68C9E9CD-7433-BE4F-B7FB-4F54210EB1DB}" uniqueName="6" name="queryStats.elapsedTime" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{A745340E-B6EC-B341-8B32-BA5777891AD1}" uniqueName="7" name="state" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3109,10 +3108,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2">
@@ -3121,13 +3120,13 @@
       <c r="D2" s="1">
         <v>45909.62987084491</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="2">
@@ -3136,10 +3135,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3">
@@ -3148,13 +3147,13 @@
       <c r="D3" s="1">
         <v>45909.629930682873</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="2">
@@ -3163,10 +3162,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4">
@@ -3175,13 +3174,13 @@
       <c r="D4" s="1">
         <v>45909.630017870368</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="2">
@@ -3190,10 +3189,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
@@ -3202,13 +3201,13 @@
       <c r="D5" s="1">
         <v>45909.630128032404</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="2">
@@ -3217,10 +3216,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6">
@@ -3229,13 +3228,13 @@
       <c r="D6" s="1">
         <v>45909.630187025461</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="2">
@@ -3244,10 +3243,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7">
@@ -3256,13 +3255,13 @@
       <c r="D7" s="1">
         <v>45909.630460682871</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="2">
@@ -3271,10 +3270,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
@@ -3283,13 +3282,13 @@
       <c r="D8" s="1">
         <v>45909.63050979167</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="2">
@@ -3298,10 +3297,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -3310,13 +3309,13 @@
       <c r="D9" s="1">
         <v>45909.630650902778</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="2">
@@ -3325,10 +3324,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
@@ -3337,13 +3336,13 @@
       <c r="D10" s="1">
         <v>45909.631091030089</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="2">
@@ -3352,10 +3351,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -3364,13 +3363,13 @@
       <c r="D11" s="1">
         <v>45909.631768912041</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="2">
@@ -3379,10 +3378,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12">
@@ -3391,13 +3390,13 @@
       <c r="D12" s="1">
         <v>45909.631869745368</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="2">
@@ -3406,10 +3405,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -3418,13 +3417,13 @@
       <c r="D13" s="1">
         <v>45909.631937696759</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="2">
@@ -3433,10 +3432,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14">
@@ -3445,13 +3444,13 @@
       <c r="D14" s="1">
         <v>45909.632040208337</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="2">
@@ -3460,10 +3459,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15">
@@ -3472,13 +3471,13 @@
       <c r="D15" s="1">
         <v>45909.632105613426</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="2">
@@ -3487,10 +3486,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16">
@@ -3499,13 +3498,13 @@
       <c r="D16" s="1">
         <v>45909.632161365742</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" t="s">
         <v>4</v>
       </c>
       <c r="I16" s="2">
@@ -3514,10 +3513,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17">
@@ -3526,13 +3525,13 @@
       <c r="D17" s="1">
         <v>45909.632257557867</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="2">
@@ -3541,10 +3540,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18">
@@ -3553,13 +3552,13 @@
       <c r="D18" s="1">
         <v>45909.632348923609</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="2">
@@ -3568,10 +3567,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19">
@@ -3580,13 +3579,13 @@
       <c r="D19" s="1">
         <v>45909.63249207176</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="2">
@@ -3595,10 +3594,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20">
@@ -3607,13 +3606,13 @@
       <c r="D20" s="1">
         <v>45909.63297604167</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="2">
@@ -3622,10 +3621,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21">
@@ -3634,13 +3633,13 @@
       <c r="D21" s="1">
         <v>45909.63304291667</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="2">
@@ -3649,10 +3648,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22">
@@ -3661,13 +3660,13 @@
       <c r="D22" s="1">
         <v>45909.633129456015</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="2">
@@ -3676,10 +3675,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23">
@@ -3688,13 +3687,13 @@
       <c r="D23" s="1">
         <v>45909.63341746528</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="2">
@@ -3712,10 +3711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56758869-BF92-984C-B475-EF2B11CB8C22}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3756,10 +3755,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2">
@@ -3768,13 +3767,13 @@
       <c r="D2" s="1">
         <v>45909.61993335648</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="2">
@@ -3783,10 +3782,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3">
@@ -3795,13 +3794,13 @@
       <c r="D3" s="1">
         <v>45909.619993379631</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="2">
@@ -3810,10 +3809,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4">
@@ -3822,13 +3821,13 @@
       <c r="D4" s="1">
         <v>45909.620054976855</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="2">
@@ -3837,10 +3836,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
@@ -3849,13 +3848,13 @@
       <c r="D5" s="1">
         <v>45909.620111759257</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="2">
@@ -3864,10 +3863,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6">
@@ -3876,13 +3875,13 @@
       <c r="D6" s="1">
         <v>45909.620163263891</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="2">
@@ -3891,10 +3890,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7">
@@ -3903,13 +3902,13 @@
       <c r="D7" s="1">
         <v>45909.620227222222</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="2">
@@ -3918,10 +3917,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
@@ -3930,13 +3929,13 @@
       <c r="D8" s="1">
         <v>45909.620276712965</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="2">
@@ -3945,10 +3944,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -3957,13 +3956,13 @@
       <c r="D9" s="1">
         <v>45909.620337986111</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="2">
@@ -3972,10 +3971,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
@@ -3984,13 +3983,13 @@
       <c r="D10" s="1">
         <v>45909.620431365744</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="2">
@@ -3999,10 +3998,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -4011,13 +4010,13 @@
       <c r="D11" s="1">
         <v>45909.620527164348</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="2">
@@ -4026,10 +4025,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12">
@@ -4038,13 +4037,13 @@
       <c r="D12" s="1">
         <v>45909.620587187499</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="2">
@@ -4053,10 +4052,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -4065,13 +4064,13 @@
       <c r="D13" s="1">
         <v>45909.620638136577</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="2">
@@ -4080,10 +4079,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14">
@@ -4092,13 +4091,13 @@
       <c r="D14" s="1">
         <v>45909.620690277778</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="2">
@@ -4107,10 +4106,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15">
@@ -4119,13 +4118,13 @@
       <c r="D15" s="1">
         <v>45909.620744513886</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="2">
@@ -4134,10 +4133,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16">
@@ -4146,13 +4145,13 @@
       <c r="D16" s="1">
         <v>45909.620795682873</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" t="s">
         <v>4</v>
       </c>
       <c r="I16" s="2">
@@ -4161,10 +4160,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17">
@@ -4173,13 +4172,13 @@
       <c r="D17" s="1">
         <v>45909.620855462963</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="2">
@@ -4188,10 +4187,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18">
@@ -4200,13 +4199,13 @@
       <c r="D18" s="1">
         <v>45909.620919224537</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="2">
@@ -4215,10 +4214,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19">
@@ -4227,13 +4226,13 @@
       <c r="D19" s="1">
         <v>45909.620976331018</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="2">
@@ -4242,10 +4241,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20">
@@ -4254,13 +4253,13 @@
       <c r="D20" s="1">
         <v>45909.621045729167</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="2">
@@ -4269,10 +4268,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21">
@@ -4281,13 +4280,13 @@
       <c r="D21" s="1">
         <v>45909.621099027776</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="2">
@@ -4296,10 +4295,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22">
@@ -4308,13 +4307,13 @@
       <c r="D22" s="1">
         <v>45909.621158576389</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="2">
@@ -4323,10 +4322,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23">
@@ -4335,18 +4334,24 @@
       <c r="D23" s="1">
         <v>45909.621238368054</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="2">
         <f>ex_8_workers_sf100_velox_2025_09_09[[#This Row],[timeMillsecs]]/nex_8_workers_sf100_velox_2025_09_09[[#This Row],[timeMillsecs]]</f>
         <v>0.61159062885326754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <f>SUM(ex_8_workers_sf100_velox_2025_09_09[timeMillsecs])</f>
+        <v>31679</v>
       </c>
     </row>
   </sheetData>
@@ -4361,7 +4366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59410A84-1EAF-4244-920E-CA5431586E88}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA49" sqref="AA49"/>
     </sheetView>
   </sheetViews>
